--- a/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
+++ b/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="19140" windowHeight="9264"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Source:</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>U.S. State Department</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2050 linearly extrapolated from 2020-2030.</t>
   </si>
 </sst>
 </file>
@@ -92,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -132,6 +144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -434,14 +449,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -475,6 +490,16 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -488,26 +513,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2011</v>
       </c>
@@ -523,8 +548,11 @@
       <c r="F3">
         <v>2030</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -543,8 +571,12 @@
       <c r="F4">
         <v>-937</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G5" si="0">TREND($D4:$F4,$D$3:$F$3,G$3)</f>
+        <v>-1014.833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,8 +595,12 @@
       <c r="F5">
         <v>-565</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>-461.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -573,28 +609,32 @@
         <v>-905</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="0">AVERAGE(C4:C5)</f>
+        <f t="shared" ref="C7:G7" si="1">AVERAGE(C4:C5)</f>
         <v>-835.5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-756</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-745</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-751</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>-738.16666666666652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -612,18 +652,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="21" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -684,11 +724,71 @@
       <c r="T1">
         <v>2029</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1">
+        <v>2031</v>
+      </c>
+      <c r="W1">
+        <v>2032</v>
+      </c>
+      <c r="X1">
+        <v>2033</v>
+      </c>
+      <c r="Y1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="AA1">
+        <v>2036</v>
+      </c>
+      <c r="AB1">
+        <v>2037</v>
+      </c>
+      <c r="AC1">
+        <v>2038</v>
+      </c>
+      <c r="AD1">
+        <v>2039</v>
+      </c>
+      <c r="AE1">
+        <v>2040</v>
+      </c>
+      <c r="AF1">
+        <v>2041</v>
+      </c>
+      <c r="AG1">
+        <v>2042</v>
+      </c>
+      <c r="AH1">
+        <v>2043</v>
+      </c>
+      <c r="AI1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1">
+        <v>2045</v>
+      </c>
+      <c r="AK1">
+        <v>2046</v>
+      </c>
+      <c r="AL1">
+        <v>2047</v>
+      </c>
+      <c r="AM1">
+        <v>2048</v>
+      </c>
+      <c r="AN1">
+        <v>2049</v>
+      </c>
+      <c r="AO1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -768,9 +868,89 @@
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!T1)*10^12</f>
         <v>-749799999999999.75</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="5">
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!U1)*10^12</f>
         <v>-751000000000000</v>
+      </c>
+      <c r="V2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!V1)*10^12</f>
+        <v>-750358333333333.62</v>
+      </c>
+      <c r="W2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!W1)*10^12</f>
+        <v>-749716666666666.87</v>
+      </c>
+      <c r="X2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!X1)*10^12</f>
+        <v>-749075000000000</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!Y1)*10^12</f>
+        <v>-748433333333333.37</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!Z1)*10^12</f>
+        <v>-747791666666666.75</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AA1)*10^12</f>
+        <v>-747150000000000.12</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AB1)*10^12</f>
+        <v>-746508333333333.5</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AC1)*10^12</f>
+        <v>-745866666666666.75</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AD1)*10^12</f>
+        <v>-745225000000000.12</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AE1)*10^12</f>
+        <v>-744583333333333.5</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AF1)*10^12</f>
+        <v>-743941666666666.87</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AG1)*10^12</f>
+        <v>-743300000000000.12</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AH1)*10^12</f>
+        <v>-742658333333333.25</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AI1)*10^12</f>
+        <v>-742016666666666.62</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AJ1)*10^12</f>
+        <v>-741375000000000</v>
+      </c>
+      <c r="AK2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AK1)*10^12</f>
+        <v>-740733333333333.37</v>
+      </c>
+      <c r="AL2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AL1)*10^12</f>
+        <v>-740091666666666.75</v>
+      </c>
+      <c r="AM2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AM1)*10^12</f>
+        <v>-739450000000000</v>
+      </c>
+      <c r="AN2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AN1)*10^12</f>
+        <v>-738808333333333.37</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AO1)*10^12</f>
+        <v>-738166666666666.75</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
+++ b/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
@@ -21,12 +21,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.state.gov/documents/organization/219038.pdf</t>
-  </si>
-  <si>
-    <t>Page 18, Table 3</t>
-  </si>
-  <si>
     <t>Land Use and Forestry (high sequestration)</t>
   </si>
   <si>
@@ -57,16 +51,22 @@
     <t>BLACE BAU LULUCF Anthropogenic CO2 Emissions</t>
   </si>
   <si>
-    <t>United States Climate Action Report 2014</t>
-  </si>
-  <si>
     <t>U.S. State Department</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>2050 linearly extrapolated from 2020-2030.</t>
+    <t>Page 34, Table 3</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/files/national_reports/biennial_reports_and_iar/submitted_biennial_reports/application/pdf/2016_second_biennial_report_of_the_united_states_.pdf</t>
+  </si>
+  <si>
+    <t>Second Biennial Report of the United States of America</t>
+  </si>
+  <si>
+    <t>2050 linearly extrapolated.</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -147,6 +147,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,32 +471,32 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,17 +505,14 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,127 +521,114 @@
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3">
+        <v>2030</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-970</v>
+      </c>
+      <c r="C4">
+        <v>-1191</v>
+      </c>
+      <c r="D4">
+        <v>-1201</v>
+      </c>
+      <c r="E4">
+        <v>-1118</v>
+      </c>
+      <c r="F4" s="9">
+        <f>TREND($B4:$E4,$B$3:$E$3,F$3)</f>
+        <v>-1369.7000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-928</v>
+      </c>
+      <c r="C5">
+        <v>-1044</v>
+      </c>
+      <c r="D5">
+        <v>-908</v>
+      </c>
+      <c r="E5">
+        <v>-689</v>
+      </c>
+      <c r="F5" s="9">
+        <f>TREND($B5:$E5,$B$3:$E$3,F$3)</f>
+        <v>-423.09999999999854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:F7" si="0">AVERAGE(B4:B5)</f>
+        <v>-949</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1117.5</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1054.5</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>-903.5</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>-896.39999999999964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2011</v>
-      </c>
-      <c r="C3">
-        <v>2015</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3">
-        <v>2025</v>
-      </c>
-      <c r="F3">
-        <v>2030</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-905</v>
-      </c>
-      <c r="C4">
-        <v>-884</v>
-      </c>
-      <c r="D4">
-        <v>-898</v>
-      </c>
-      <c r="E4">
-        <v>-917</v>
-      </c>
-      <c r="F4">
-        <v>-937</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G5" si="0">TREND($D4:$F4,$D$3:$F$3,G$3)</f>
-        <v>-1014.833333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-905</v>
-      </c>
-      <c r="C5">
-        <v>-787</v>
-      </c>
-      <c r="D5">
-        <v>-614</v>
-      </c>
-      <c r="E5">
-        <v>-573</v>
-      </c>
-      <c r="F5">
-        <v>-565</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>-461.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE(B4:B5)</f>
-        <v>-905</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:G7" si="1">AVERAGE(C4:C5)</f>
-        <v>-835.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>-756</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-745</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>-751</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>-738.16666666666652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:F7" formulaRange="1"/>
+    <ignoredError sqref="B7:E7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -652,305 +638,276 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E1">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2016</v>
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2020</v>
       </c>
       <c r="H1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="I1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="J1">
-        <v>2019</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2020</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2025</v>
       </c>
       <c r="M1">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="N1">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="O1">
-        <v>2024</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2025</v>
-      </c>
-      <c r="Q1">
-        <v>2026</v>
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2030</v>
       </c>
       <c r="R1">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="S1">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="T1">
-        <v>2029</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2030</v>
-      </c>
-      <c r="V1">
-        <v>2031</v>
-      </c>
-      <c r="W1">
-        <v>2032</v>
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2036</v>
       </c>
       <c r="X1">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="Y1">
-        <v>2034</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>2035</v>
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
       </c>
       <c r="AA1">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="AB1">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="AC1">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="AD1">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="AE1">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="AF1">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="AG1">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="AH1">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="AI1">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="AJ1">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="AK1">
-        <v>2046</v>
-      </c>
-      <c r="AL1">
-        <v>2047</v>
-      </c>
-      <c r="AM1">
-        <v>2048</v>
-      </c>
-      <c r="AN1">
-        <v>2049</v>
-      </c>
-      <c r="AO1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!B1)*10^12</f>
-        <v>-905000000000000</v>
+        <v>-949000000000000</v>
       </c>
       <c r="C2" s="4">
         <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!C1)*10^12</f>
-        <v>-887625000000000</v>
+        <v>-982700000000011.62</v>
       </c>
       <c r="D2" s="4">
         <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!D1)*10^12</f>
-        <v>-870250000000000</v>
+        <v>-1016400000000008.7</v>
       </c>
       <c r="E2" s="4">
         <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!E1)*10^12</f>
-        <v>-852875000000000</v>
-      </c>
-      <c r="F2" s="5">
+        <v>-1050100000000005.9</v>
+      </c>
+      <c r="F2" s="4">
         <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!F1)*10^12</f>
-        <v>-835500000000000</v>
-      </c>
-      <c r="G2" s="4">
-        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!G1)*10^12</f>
-        <v>-819600000000002.12</v>
+        <v>-1083800000000002.9</v>
+      </c>
+      <c r="G2" s="5">
+        <f>TREND(Data!$B7:$C7,Data!$B3:$C3,BLACE!G1)*10^12</f>
+        <v>-1117500000000000</v>
       </c>
       <c r="H2" s="4">
         <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!H1)*10^12</f>
-        <v>-803700000000004.37</v>
+        <v>-1104900000000001.5</v>
       </c>
       <c r="I2" s="4">
         <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!I1)*10^12</f>
-        <v>-787800000000002.87</v>
+        <v>-1092299999999999.2</v>
       </c>
       <c r="J2" s="4">
         <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!J1)*10^12</f>
-        <v>-771900000000001.5</v>
-      </c>
-      <c r="K2" s="5">
+        <v>-1079700000000000.7</v>
+      </c>
+      <c r="K2" s="4">
         <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!K1)*10^12</f>
-        <v>-756000000000003.62</v>
-      </c>
-      <c r="L2" s="4">
-        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!L1)*10^12</f>
-        <v>-753799999999999.25</v>
+        <v>-1067100000000002.1</v>
+      </c>
+      <c r="L2" s="5">
+        <f>TREND(Data!$C7:$D7,Data!$C3:$D3,BLACE!L1)*10^12</f>
+        <v>-1054500000000000</v>
       </c>
       <c r="M2" s="4">
         <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!M1)*10^12</f>
-        <v>-751599999999999.5</v>
+        <v>-1024300000000002.9</v>
       </c>
       <c r="N2" s="4">
         <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!N1)*10^12</f>
-        <v>-749399999999999.62</v>
+        <v>-994099999999998.5</v>
       </c>
       <c r="O2" s="4">
         <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!O1)*10^12</f>
-        <v>-747199999999999.87</v>
-      </c>
-      <c r="P2" s="5">
+        <v>-963900000000001.5</v>
+      </c>
+      <c r="P2" s="4">
         <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!P1)*10^12</f>
-        <v>-745000000000000</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!Q1)*10^12</f>
-        <v>-746199999999999.87</v>
+        <v>-933700000000004.37</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>TREND(Data!$D7:$E7,Data!$D3:$E3,BLACE!Q1)*10^12</f>
+        <v>-903500000000000</v>
       </c>
       <c r="R2" s="4">
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!R1)*10^12</f>
-        <v>-747400000000000.12</v>
+        <v>-903144999999999.87</v>
       </c>
       <c r="S2" s="4">
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!S1)*10^12</f>
-        <v>-748599999999999.87</v>
+        <v>-902789999999999.87</v>
       </c>
       <c r="T2" s="4">
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!T1)*10^12</f>
-        <v>-749799999999999.75</v>
-      </c>
-      <c r="U2" s="5">
+        <v>-902434999999999.87</v>
+      </c>
+      <c r="U2" s="4">
         <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!U1)*10^12</f>
-        <v>-751000000000000</v>
-      </c>
-      <c r="V2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!V1)*10^12</f>
-        <v>-750358333333333.62</v>
-      </c>
-      <c r="W2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!W1)*10^12</f>
-        <v>-749716666666666.87</v>
+        <v>-902079999999999.87</v>
+      </c>
+      <c r="V2" s="11">
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!V1)*10^12</f>
+        <v>-901724999999999.75</v>
+      </c>
+      <c r="W2" s="11">
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!W1)*10^12</f>
+        <v>-901369999999999.75</v>
       </c>
       <c r="X2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!X1)*10^12</f>
-        <v>-749075000000000</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!X1)*10^12</f>
+        <v>-901014999999999.75</v>
       </c>
       <c r="Y2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!Y1)*10^12</f>
-        <v>-748433333333333.37</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!Y1)*10^12</f>
+        <v>-900659999999999.75</v>
       </c>
       <c r="Z2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!Z1)*10^12</f>
-        <v>-747791666666666.75</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!Z1)*10^12</f>
+        <v>-900304999999999.75</v>
       </c>
       <c r="AA2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AA1)*10^12</f>
-        <v>-747150000000000.12</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AA1)*10^12</f>
+        <v>-899949999999999.75</v>
       </c>
       <c r="AB2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AB1)*10^12</f>
-        <v>-746508333333333.5</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AB1)*10^12</f>
+        <v>-899594999999999.62</v>
       </c>
       <c r="AC2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AC1)*10^12</f>
-        <v>-745866666666666.75</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AC1)*10^12</f>
+        <v>-899239999999999.62</v>
       </c>
       <c r="AD2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AD1)*10^12</f>
-        <v>-745225000000000.12</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AD1)*10^12</f>
+        <v>-898884999999999.62</v>
       </c>
       <c r="AE2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AE1)*10^12</f>
-        <v>-744583333333333.5</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AE1)*10^12</f>
+        <v>-898529999999999.62</v>
       </c>
       <c r="AF2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AF1)*10^12</f>
-        <v>-743941666666666.87</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AF1)*10^12</f>
+        <v>-898174999999999.62</v>
       </c>
       <c r="AG2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AG1)*10^12</f>
-        <v>-743300000000000.12</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AG1)*10^12</f>
+        <v>-897819999999999.62</v>
       </c>
       <c r="AH2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AH1)*10^12</f>
-        <v>-742658333333333.25</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AH1)*10^12</f>
+        <v>-897464999999999.62</v>
       </c>
       <c r="AI2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AI1)*10^12</f>
-        <v>-742016666666666.62</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AI1)*10^12</f>
+        <v>-897109999999999.5</v>
       </c>
       <c r="AJ2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AJ1)*10^12</f>
-        <v>-741375000000000</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AJ1)*10^12</f>
+        <v>-896754999999999.5</v>
       </c>
       <c r="AK2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AK1)*10^12</f>
-        <v>-740733333333333.37</v>
-      </c>
-      <c r="AL2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AL1)*10^12</f>
-        <v>-740091666666666.75</v>
-      </c>
-      <c r="AM2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AM1)*10^12</f>
-        <v>-739450000000000</v>
-      </c>
-      <c r="AN2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AN1)*10^12</f>
-        <v>-738808333333333.37</v>
-      </c>
-      <c r="AO2" s="4">
-        <f>TREND(Data!$F7:$G7,Data!$F3:$G3,BLACE!AO1)*10^12</f>
-        <v>-738166666666666.75</v>
+        <f>TREND(Data!$E7:$F7,Data!$E3:$F3,BLACE!AK1)*10^12</f>
+        <v>-896399999999999.5</v>
       </c>
     </row>
   </sheetData>
